--- a/Extraccion/outputs/Registro_Proyectos_Actividades_Regalias.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_Regalias.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Código PI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Ejecutado</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RECURSOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Hoja</t>
         </is>
       </c>
@@ -464,6 +484,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2024003760004</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REGALÍAS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Valle_Paraiso_Bilingue_Pro</t>
         </is>
       </c>
@@ -480,6 +514,22 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2023003760005</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18051289322.9</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REGALÍAS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>VALLELABS_PRO</t>
         </is>
@@ -490,6 +540,18 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REGALÍAS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>SABER_2024_2025_PRO</t>
         </is>
       </c>
@@ -507,6 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2016000030006</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4929335426</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REGALÍAS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>PORRAS_1_2017_2028_PRO</t>
         </is>
       </c>
@@ -523,6 +601,22 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>Código BPIN</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2018000030035</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5712917221</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REGALÍAS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>PORRAS_2_20XX_20XX_PRO</t>
         </is>
@@ -652,7 +746,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Jyn5GBPpcE9fWG0Jyj3Go2VEz8jk23Pn?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1JxfKZkOkeLJLMVrvaRSiUytrOq7NSoHT?usp=drive_link</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -709,7 +803,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1K0FB9ewrGcgavn9sElJqZwwpPavaUMDX?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Jyn5GBPpcE9fWG0Jyj3Go2VEz8jk23Pn?usp=drive_link</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -766,7 +860,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KDQhqqJ8cHo6V0EYtQgh9wp8MPz8Ijkk?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1K0FB9ewrGcgavn9sElJqZwwpPavaUMDX?usp=drive_link</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -844,7 +938,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KB8fyZ2O0oQBnI_fSMitfpXvghBAKL5h?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KDQhqqJ8cHo6V0EYtQgh9wp8MPz8Ijkk?usp=drive_link</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -899,7 +993,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1K5mQ7SnYOlc0OQEoDvrfqCWBy65Y3opd?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KB8fyZ2O0oQBnI_fSMitfpXvghBAKL5h?usp=drive_link</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -954,7 +1048,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1K4CzAIrIBjIhcXil2X-6xkzpGugac0bO?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1K5mQ7SnYOlc0OQEoDvrfqCWBy65Y3opd?usp=drive_link</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1011,7 +1105,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KWYBQRv_dZY7yi3ES_elAQkQvgaf2TQz?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1K4CzAIrIBjIhcXil2X-6xkzpGugac0bO?usp=drive_link</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1068,7 +1162,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KRc6zPWthqObBVSPu9HlR6W4uGQ76LYP?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KWYBQRv_dZY7yi3ES_elAQkQvgaf2TQz?usp=drive_link</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1125,7 +1219,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KPFy6X_iW64gfH_dN0JqX8GPGdkSaiGe?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KRc6zPWthqObBVSPu9HlR6W4uGQ76LYP?usp=drive_link</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1182,7 +1276,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KJmffD0owaYVZ6pySQ-oYbrVdkWaXLfd?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KPFy6X_iW64gfH_dN0JqX8GPGdkSaiGe?usp=drive_link</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1239,7 +1333,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KFXA9o9Ofs8JUmaaFQbFNdRqJQYTLnTx?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KJmffD0owaYVZ6pySQ-oYbrVdkWaXLfd?usp=drive_link</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1296,7 +1390,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KkVTie14G-X8C-Y-RccM2xK6TXwkSMUo?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KFXA9o9Ofs8JUmaaFQbFNdRqJQYTLnTx?usp=drive_link</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1351,7 +1445,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KjDiuG_pMGR9Kc05dH0zr5cnIKBjijKE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KkVTie14G-X8C-Y-RccM2xK6TXwkSMUo?usp=drive_link</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1406,7 +1500,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Kcg26htDpbX5BHgzdHK2ngmeyxVlYdxu?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KjDiuG_pMGR9Kc05dH0zr5cnIKBjijKE?usp=drive_link</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1463,7 +1557,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Kkwh2JXi9jMZacKMl8UACTVMpmCLIZPV?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Kcg26htDpbX5BHgzdHK2ngmeyxVlYdxu?usp=drive_link</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1520,7 +1614,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Kt8U0wViK5hV416MoL6U1RSJesNJ8GRP?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Kkwh2JXi9jMZacKMl8UACTVMpmCLIZPV?usp=drive_link</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1577,7 +1671,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KmqU-7C7GNyx2C6IikrYeaPGMSY_i_pL?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Kt8U0wViK5hV416MoL6U1RSJesNJ8GRP?usp=drive_link</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1632,7 +1726,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1KljP0a4UULZiTKoOh-VuPohFvYwPfFiH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1KmqU-7C7GNyx2C6IikrYeaPGMSY_i_pL?usp=drive_link</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1685,7 +1779,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1KljP0a4UULZiTKoOh-VuPohFvYwPfFiH?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>La información del total ejecutado en 2024 en cada actividad, fue obtenida del informe de interventoría que reposa como evidencia en la casilla L9, todos los demás datos se obtienen de las evidencias en la casilla L12 (esto para evitar copiar y pegar los mismos documentos en cada una de las casillas de evidencias)</t>
@@ -1740,7 +1838,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_w2HKDm-3enNvstDulfJbYBi3JwvOPcW?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1a4MtngP9WLq12LUNDDXlXQr01ZZTyKSV?usp=drive_link</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1797,7 +1895,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_xqHCxbY0wVjmtmt8ECMLtGydrTkXC0L?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_w2HKDm-3enNvstDulfJbYBi3JwvOPcW?usp=drive_link</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1854,7 +1952,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_vCOo8UFh0en5gEFIMVGf5TIR0_BStfW?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_xqHCxbY0wVjmtmt8ECMLtGydrTkXC0L?usp=drive_link</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1911,7 +2009,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_zN4XVPdRxhjFwW23T33wovUjS1vXwEF?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_vCOo8UFh0en5gEFIMVGf5TIR0_BStfW?usp=drive_link</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1964,7 +2062,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_aT5kI_OJc3PSrYmkvoeVRLfcNmpHD7S?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_zN4XVPdRxhjFwW23T33wovUjS1vXwEF?usp=drive_link</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2017,7 +2115,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1a00F5ZoC4skkFAClyzRCf_I0HJfxTVFB?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_aT5kI_OJc3PSrYmkvoeVRLfcNmpHD7S?usp=drive_link</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2070,7 +2168,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_hml0CWh_eDXcL3VyCMA40CfQheu6vmp?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1a00F5ZoC4skkFAClyzRCf_I0HJfxTVFB?usp=drive_link</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2123,7 +2221,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1a-SUva_wKqh_xatG8Srl4fxzGitYL11P?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_hml0CWh_eDXcL3VyCMA40CfQheu6vmp?usp=drive_link</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2176,7 +2274,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_TnxchfFD7m-nWgoUX3XR1qusC1S0_ho?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1a-SUva_wKqh_xatG8Srl4fxzGitYL11P?usp=drive_link</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2229,7 +2327,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_o82p0A2yT6BhnPCTgA3Pd2GQgYoGx0-?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_TnxchfFD7m-nWgoUX3XR1qusC1S0_ho?usp=drive_link</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2282,7 +2380,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_qNaT0Ro-tnFDqYfnZnW5PGzscf5rjJ2?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_o82p0A2yT6BhnPCTgA3Pd2GQgYoGx0-?usp=drive_link</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2335,7 +2433,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_vk9syAWGRGieKc5hn9ikci40mUpnkyk?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_qNaT0Ro-tnFDqYfnZnW5PGzscf5rjJ2?usp=drive_link</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2388,7 +2486,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_ttyq9vaeCe5NobCZkK4aSMpRs2qUx8j?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_vk9syAWGRGieKc5hn9ikci40mUpnkyk?usp=drive_link</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2441,7 +2539,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_-SviaZGIoefG0-1F96satJH1AUuxGtn?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_ttyq9vaeCe5NobCZkK4aSMpRs2qUx8j?usp=drive_link</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2498,7 +2596,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_E2AMZQs15a-P7oqtO8MicZGg-PQzvyC?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_-SviaZGIoefG0-1F96satJH1AUuxGtn?usp=drive_link</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2555,7 +2653,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_mGXSjmKd5A8ufSUx8GDUORZW8J3VIeS?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_E2AMZQs15a-P7oqtO8MicZGg-PQzvyC?usp=drive_link</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2612,7 +2710,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_4DPTa75ijoIDKz1vd1od-nBEsomaT6n?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_mGXSjmKd5A8ufSUx8GDUORZW8J3VIeS?usp=drive_link</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2669,7 +2767,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_Ju9Hb-mBvcMxBPtn8o54T3ccFkYT2Tz?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_4DPTa75ijoIDKz1vd1od-nBEsomaT6n?usp=drive_link</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2722,7 +2820,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_M0-A6DhDObPFluy7zDKsopyjek3xbsl?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_Ju9Hb-mBvcMxBPtn8o54T3ccFkYT2Tz?usp=drive_link</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2775,7 +2873,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_3IGmjNpQ_inqOgr5BCccddaEKmBx6b-?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_M0-A6DhDObPFluy7zDKsopyjek3xbsl?usp=drive_link</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2828,7 +2926,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_KAwX1o-mXBoyF79IL3MM2C0S4_rx4W2?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_3IGmjNpQ_inqOgr5BCccddaEKmBx6b-?usp=drive_link</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2881,7 +2979,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ZxZFmJWrpIk1y1-yavMhPT9Gciwh4nCh?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_KAwX1o-mXBoyF79IL3MM2C0S4_rx4W2?usp=drive_link</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2934,7 +3032,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_ZLRvBYpR1J3aS2RkPqHM0KjSHbsi0I2?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1ZxZFmJWrpIk1y1-yavMhPT9Gciwh4nCh?usp=drive_link</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2987,7 +3085,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_q42B2QsjnZnRcuZdkKDHYOfR7uI55xM?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_ZLRvBYpR1J3aS2RkPqHM0KjSHbsi0I2?usp=drive_link</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3040,7 +3138,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_amzYPRWpN6HogEnrwG_CVsz_2rjZPA1?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_q42B2QsjnZnRcuZdkKDHYOfR7uI55xM?usp=drive_link</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3093,7 +3191,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_DxYGPlDZ11_uW0Cw_pH82cSYUjcsPrE?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_amzYPRWpN6HogEnrwG_CVsz_2rjZPA1?usp=drive_link</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3146,7 +3244,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_alZHMFL5V920PDUH903TvPAe2VtMwAH?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_DxYGPlDZ11_uW0Cw_pH82cSYUjcsPrE?usp=drive_link</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3199,7 +3297,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_GC3-I84zp-PwWPhAkjQTOegvdoAEUp_?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_alZHMFL5V920PDUH903TvPAe2VtMwAH?usp=drive_link</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3252,7 +3350,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_IdLX7JdUKuIwQhxnOgHumfCvLZcmHbA?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_GC3-I84zp-PwWPhAkjQTOegvdoAEUp_?usp=drive_link</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3309,7 +3407,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_pmj_fmgFd1PPWtZXNYu9V4zN2YZLsoy?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_IdLX7JdUKuIwQhxnOgHumfCvLZcmHbA?usp=drive_link</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3366,7 +3464,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_TwBqOG_9Wi9dl8zd3l7AsyUd4pwxVA2?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_pmj_fmgFd1PPWtZXNYu9V4zN2YZLsoy?usp=drive_link</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3419,7 +3517,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_Dpoy5DP31hzjQzdLiO0Czt3RNNgX869?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_TwBqOG_9Wi9dl8zd3l7AsyUd4pwxVA2?usp=drive_link</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3472,7 +3570,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_mWi08U7FUrEN_RkRDrmV_w8tH6e4VsX?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_Dpoy5DP31hzjQzdLiO0Czt3RNNgX869?usp=drive_link</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3525,7 +3623,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_QuAtekG7ywYL2waUSlwnLdD2gdgQ7yO?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_mWi08U7FUrEN_RkRDrmV_w8tH6e4VsX?usp=drive_link</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3578,7 +3676,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_3J_WSXixdCqy0m4qR4s_ku6FBKkLwfc?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_QuAtekG7ywYL2waUSlwnLdD2gdgQ7yO?usp=drive_link</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3631,7 +3729,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1_KgpSbjBKLT6A-DmMyRfazhFQzBILzs4?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_3J_WSXixdCqy0m4qR4s_ku6FBKkLwfc?usp=drive_link</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3684,7 +3782,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1Zy_k0pkTmRBAFXgoS0veLCj8slVvwQVG?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1_KgpSbjBKLT6A-DmMyRfazhFQzBILzs4?usp=drive_link</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3737,7 +3835,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/drive/folders/1ZweYdT6-GnEt1c9eq-CDWAHnfPvIU1wg?usp=drive_link</t>
+          <t>https://drive.google.com/drive/folders/1Zy_k0pkTmRBAFXgoS0veLCj8slVvwQVG?usp=drive_link</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3782,7 +3880,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1ZweYdT6-GnEt1c9eq-CDWAHnfPvIU1wg?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -3835,7 +3937,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1g0S-0PqyFxgCDcjtBLe7PIXN6-HJuUOD?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4485,7 +4591,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1j-rKPSDQf-i8bSeCTiMlSNKPd6yDnTUk?usp=sharing</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>Sin observaciones</t>
@@ -4706,7 +4816,11 @@
           <t>EVIDENCIAS</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/drive/folders/1gSfOwWu4gpSEpfHs4cnOG8EdUpYqF_fW?usp=drive_link</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>Sin observaciones</t>

--- a/Extraccion/outputs/Registro_Proyectos_Actividades_Regalias.xlsx
+++ b/Extraccion/outputs/Registro_Proyectos_Actividades_Regalias.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Info_Proyectos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Actividades" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Metas" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +438,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Proyecto</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -704,7 +705,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Proyecto</t>
+          <t>Nombre_Proyecto</t>
         </is>
       </c>
     </row>
@@ -5442,4 +5443,151 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hoja</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre_Proyecto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Valle_Paraiso_Bilingue_Pro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FORTALECIMIENTO DE LAS HABILIDADES COMUNICATIVAS EN INGLÉS DE LOS ESTUDINATES DE INSTITUCIONES EDUCATIVAS OFICIALES DEL VALLE DEL CAUCA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(sin descripción)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VALLELABS_PRO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IMPLEMENTACIÓN DE UNA RED DE ESCENARIOS DE INVESTIGACIÓN E INNOVACIÓN, INTEGRADO AL ECOSISTEMA TECNOPEDAGÓGICO, PARA EL MEJORAMIENTO CONTINUO DE LA CALIDAD EDUCATIVA EN EL VALLE DEL CAUCA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(sin descripción)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SABER_2024_2025_PRO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(sin descripción)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PORRAS_1_2017_2028_PRO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FORTALECIMIENTO A LA EDUCACION SUPERIOR "LOS MAS PORRAS DEL VALLE DEL CAUCA"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(sin descripción)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PORRAS_2_20XX_20XX_PRO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FORTALECIMIENTO AL ACCESO Y PERMANENCIA DE LOS ESTUDIANTES DE LAS INSTITUCIONES EDUCATIVAS OFICIALES A LA EDUCACION SUPERIOR EN EL VALLE DEL CAUCA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Meta de Producto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MP2401001362201085 - Vincular a 2.000 estudiantes y bachilleres, de los 34 municipios no certificados del Valle del Cauca, a procesos de orientación, acceso y permanencia en la educación superior (técnicos profesionales, tecnólogos y profesionales) para la movilidad educativa, que contribuya al cierre de brechas de capital humano, durante el periodo de gobierno.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>